--- a/templates/sample-info.xlsx
+++ b/templates/sample-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B80EE0-40C2-4F66-9723-65F2ABD9E241}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0985A1-EB8F-4AB3-8168-E5F20D8E15BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2595" windowWidth="14055" windowHeight="12405" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organizations" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Giám đốc công ty</t>
   </si>
@@ -79,7 +79,40 @@
     <t>Mã cấp trên</t>
   </si>
   <si>
-    <t>Phòng Tự động hóa</t>
+    <t>Tên viết tắt</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Phòng Tự động</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>TĐ</t>
+  </si>
+  <si>
+    <t>Mô tả phòng hành chính</t>
+  </si>
+  <si>
+    <t>Mô tả phòng dịch vụ</t>
+  </si>
+  <si>
+    <t>Mô tả phòng tự động</t>
+  </si>
+  <si>
+    <t>Phòng Giải lao</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Mô tả giải lao</t>
   </si>
 </sst>
 </file>
@@ -291,13 +324,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{9CCA8FE9-6B14-409D-8217-A36B47B0E62F}"/>
@@ -675,87 +708,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C49C0-4525-4B19-A798-BE216164A953}">
-  <dimension ref="B3:G6"/>
+  <dimension ref="A3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -788,10 +867,10 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -799,8 +878,8 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>

--- a/templates/sample-info.xlsx
+++ b/templates/sample-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0985A1-EB8F-4AB3-8168-E5F20D8E15BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71643A2-12E5-4251-9AD5-92D35B00B3FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="organizations" sheetId="16" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="17" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,36 +73,33 @@
     <t>Phòng Hành chính</t>
   </si>
   <si>
+    <t>Mã cấp trên</t>
+  </si>
+  <si>
+    <t>Tên viết tắt</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Mô tả phòng hành chính</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
     <t>Phòng Dịch vụ</t>
   </si>
   <si>
-    <t>Mã cấp trên</t>
-  </si>
-  <si>
-    <t>Tên viết tắt</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>Mô tả phòng dịch vụ</t>
   </si>
   <si>
     <t>Phòng Tự động</t>
   </si>
   <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>TĐ</t>
-  </si>
-  <si>
-    <t>Mô tả phòng hành chính</t>
-  </si>
-  <si>
-    <t>Mô tả phòng dịch vụ</t>
-  </si>
-  <si>
     <t>Mô tả phòng tự động</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Mô tả giải lao</t>
+  </si>
+  <si>
+    <t>TD</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,16 +744,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -763,16 +763,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -783,16 +780,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -803,16 +797,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -823,16 +814,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>1</v>
